--- a/data/marsamaroc/marsa_maroc_tenders.xlsx
+++ b/data/marsamaroc/marsa_maroc_tenders.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
-    <t>object</t>
+    <t>objet</t>
   </si>
   <si>
     <t>date_limite</t>

--- a/data/marsamaroc/marsa_maroc_tenders.xlsx
+++ b/data/marsamaroc/marsa_maroc_tenders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>objet</t>
   </si>
@@ -22,17 +22,6 @@
     <t>date_limite</t>
   </si>
   <si>
-    <t>Nombre de résultats : 18
-Afficher
-10
-20
-50
-100
-500
-résultats / page
-/ 2</t>
-  </si>
-  <si>
     <t>Objet : Travaux de construction de murettes amovibles en béton armé pour le compte de Marsa Maroc et sa filiale SMA au Port d’Agadir</t>
   </si>
   <si>
@@ -61,19 +50,6 @@
   </si>
   <si>
     <t>Objet : FOURNITURE ET POSE DE CABLES ELECTRIQUE D’ALIMENTATION DES VANNES MOTORISEES DU NOUVEAU PIPE DE PROPANE AU PORT DE MOHAMMEDIA</t>
-  </si>
-  <si>
-    <t>Afficher
-10
-20
-50
-100
-500
-résultats / page
-/ 2</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Mar 08 Juil 2025</t>
@@ -449,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -484,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -492,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -500,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -508,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -516,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -524,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -532,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -540,28 +516,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/marsamaroc/marsa_maroc_tenders.xlsx
+++ b/data/marsamaroc/marsa_maroc_tenders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>objet</t>
   </si>
@@ -22,6 +22,9 @@
     <t>date_limite</t>
   </si>
   <si>
+    <t>Objet : TRAVAUX DE VIDANGE DES BACS DE STOCKAGE DE LA STATION DEBALLASTAGE ET RINÇAGE DE MARSA MAROC AU PORT DE MOHAMMEDIA</t>
+  </si>
+  <si>
     <t>Objet : Travaux de construction de murettes amovibles en béton armé pour le compte de Marsa Maroc et sa filiale SMA au Port d’Agadir</t>
   </si>
   <si>
@@ -46,10 +49,10 @@
     <t>Objet : construction de deux hangars pour le stockage des vracs solides au Terminal Polyvalent de Marsa Maroc au Port de Casablanca.</t>
   </si>
   <si>
-    <t>Objet : Travaux de revêtement des voiries et terre-pleins des terminaux de Marsa Maroc et sa filiale SMA au Port d’Agadir</t>
-  </si>
-  <si>
-    <t>Objet : FOURNITURE ET POSE DE CABLES ELECTRIQUE D’ALIMENTATION DES VANNES MOTORISEES DU NOUVEAU PIPE DE PROPANE AU PORT DE MOHAMMEDIA</t>
+    <t>Objet : Travaux mécaniques, électriques et divers des engins flottants de la société Marsa Maroc au Port d’Agadir</t>
+  </si>
+  <si>
+    <t>Jeu 10 Juil 2025</t>
   </si>
   <si>
     <t>Mar 08 Juil 2025</t>
@@ -468,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -484,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -508,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -516,7 +519,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/marsamaroc/marsa_maroc_tenders.xlsx
+++ b/data/marsamaroc/marsa_maroc_tenders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>objet</t>
   </si>
@@ -22,6 +22,9 @@
     <t>date_limite</t>
   </si>
   <si>
+    <t>link</t>
+  </si>
+  <si>
     <t>Objet : TRAVAUX DE VIDANGE DES BACS DE STOCKAGE DE LA STATION DEBALLASTAGE ET RINÇAGE DE MARSA MAROC AU PORT DE MOHAMMEDIA</t>
   </si>
   <si>
@@ -37,6 +40,12 @@
     <t>Objet : FOURNITURE DE CHARIOTS ELEVATEURS DE MOYENNE CAPACITE A MARSA MAROC</t>
   </si>
   <si>
+    <t>Objet : Fourniture des chariots élévateurs sur pneus à la Direction de l’Exploitation au Port de Casablanca Trafic Polyvalent.</t>
+  </si>
+  <si>
+    <t>Objet : Fourniture des équipements informatiques pour les besoins de la Direction de l’Exploitation au Port de Casablanca Trafic Polyvalent.</t>
+  </si>
+  <si>
     <t>Objet : Démolition d’un ancien bâtiment relevant de Marsa Maroc à la Direction de l’Exploitation au port de Casablanca Trafic Polyvalent</t>
   </si>
   <si>
@@ -46,12 +55,6 @@
     <t>Objet : SOUS TRAITANCE DES PRESATIONS DE GERBAGE ET CHARGEMENT DES MARCHANDISES PAR LES EQUIPEMENTS DE MARSA MAROC AU PORT DE JORF LASFAR</t>
   </si>
   <si>
-    <t>Objet : construction de deux hangars pour le stockage des vracs solides au Terminal Polyvalent de Marsa Maroc au Port de Casablanca.</t>
-  </si>
-  <si>
-    <t>Objet : Travaux mécaniques, électriques et divers des engins flottants de la société Marsa Maroc au Port d’Agadir</t>
-  </si>
-  <si>
     <t>Jeu 10 Juil 2025</t>
   </si>
   <si>
@@ -70,7 +73,7 @@
     <t>Lun 30 Juin 2025</t>
   </si>
   <si>
-    <t>Jeu 26 Juin 2025</t>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -428,98 +431,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/marsamaroc/marsa_maroc_tenders.xlsx
+++ b/data/marsamaroc/marsa_maroc_tenders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>objet</t>
   </si>
@@ -25,6 +25,9 @@
     <t>link</t>
   </si>
   <si>
+    <t>Objet : Fourniture et installation de systèmes de détection et extinction d’incendie au niveau des postes électriques pour le compte de Marsa Maroc au Port d’Agadir</t>
+  </si>
+  <si>
     <t>Objet : TRAVAUX DE VIDANGE DES BACS DE STOCKAGE DE LA STATION DEBALLASTAGE ET RINÇAGE DE MARSA MAROC AU PORT DE MOHAMMEDIA</t>
   </si>
   <si>
@@ -49,10 +52,7 @@
     <t>Objet : Démolition d’un ancien bâtiment relevant de Marsa Maroc à la Direction de l’Exploitation au port de Casablanca Trafic Polyvalent</t>
   </si>
   <si>
-    <t>Objet : La fourniture des remorques basses et des remorques à cuvettes au Terminal à Conteneurs Est de Marsa Maroc Trafics Conteneur et Roulier et à la société Terminal à Conteneurs 3 du Port de Casablanca.</t>
-  </si>
-  <si>
-    <t>Objet : SOUS TRAITANCE DES PRESATIONS DE GERBAGE ET CHARGEMENT DES MARCHANDISES PAR LES EQUIPEMENTS DE MARSA MAROC AU PORT DE JORF LASFAR</t>
+    <t>Jeu 17 Juil 2025</t>
   </si>
   <si>
     <t>Jeu 10 Juil 2025</t>
@@ -70,17 +70,38 @@
     <t>Mar 01 Juil 2025</t>
   </si>
   <si>
-    <t>Lun 30 Juin 2025</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>https://achats.marsamaroc.co.ma/?page=entreprise.EntrepriseDetailsConsultation&amp;refConsultation=8030&amp;orgAcronyme=t5y&amp;echanges</t>
+  </si>
+  <si>
+    <t>https://achats.marsamaroc.co.ma/?page=entreprise.EntrepriseDetailsConsultation&amp;refConsultation=8007&amp;orgAcronyme=t5y&amp;echanges</t>
+  </si>
+  <si>
+    <t>https://achats.marsamaroc.co.ma/?page=entreprise.EntrepriseDetailsConsultation&amp;refConsultation=8003&amp;orgAcronyme=t5y&amp;echanges</t>
+  </si>
+  <si>
+    <t>https://achats.marsamaroc.co.ma/?page=entreprise.EntrepriseDetailsConsultation&amp;refConsultation=7975&amp;orgAcronyme=t5y&amp;echanges</t>
+  </si>
+  <si>
+    <t>https://achats.marsamaroc.co.ma/?page=entreprise.EntrepriseDetailsConsultation&amp;refConsultation=7894&amp;orgAcronyme=t5y&amp;echanges</t>
+  </si>
+  <si>
+    <t>https://achats.marsamaroc.co.ma/?page=entreprise.EntrepriseDetailsConsultation&amp;refConsultation=7967&amp;orgAcronyme=t5y&amp;echanges</t>
+  </si>
+  <si>
+    <t>https://achats.marsamaroc.co.ma/?page=entreprise.EntrepriseDetailsConsultation&amp;refConsultation=7845&amp;orgAcronyme=t5y&amp;echanges</t>
+  </si>
+  <si>
+    <t>https://achats.marsamaroc.co.ma/?page=entreprise.EntrepriseDetailsConsultation&amp;refConsultation=8017&amp;orgAcronyme=t5y&amp;echanges</t>
+  </si>
+  <si>
+    <t>https://achats.marsamaroc.co.ma/?page=entreprise.EntrepriseDetailsConsultation&amp;refConsultation=7985&amp;orgAcronyme=t5y&amp;echanges</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +116,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,16 +157,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,9 +498,9 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -475,10 +509,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,10 +520,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -499,8 +533,8 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -510,8 +544,8 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,10 +553,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -532,8 +566,8 @@
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -543,22 +577,22 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>